--- a/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
@@ -490,20 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0286</v>
+        <v>0.9472</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.9472</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0016</v>
+        <v>0.9281</v>
       </c>
     </row>
     <row r="4">
@@ -513,20 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5984</v>
+        <v>0.9463</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.9096</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5984</t>
+          <t>0.9463</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7189</v>
+        <v>0.9276</v>
       </c>
     </row>
     <row r="5">

--- a/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,20 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9472</v>
+        <v>0.7004</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9097</t>
+          <t>0.9075</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.9472</t>
+          <t>0.7004</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9281</v>
+        <v>0.7895</v>
       </c>
     </row>
     <row r="4">
@@ -513,20 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9463</v>
+        <v>0.7165</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9096</t>
+          <t>0.9154</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.9463</t>
+          <t>0.7165</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9276</v>
+        <v>0.8017</v>
       </c>
     </row>
     <row r="5">

--- a/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
@@ -467,20 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9535</v>
+        <v>0.5742</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.9115</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9535</t>
+          <t>0.5742</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9308</v>
+        <v>0.6961000000000001</v>
       </c>
     </row>
     <row r="3">

--- a/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Majority Baseline</t>
+          <t>Most Common Class Baseline</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/change_smote_model_comparison_df.xlsx
@@ -467,20 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5742</v>
+        <v>0.5608</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9115</t>
+          <t>0.9147</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5742</t>
+          <t>0.5608</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6961000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
